--- a/result/without_base/124/arousal/s09_1.xlsx
+++ b/result/without_base/124/arousal/s09_1.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.6425000131130219</v>
+        <v>0.6550000011920929</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -516,7 +516,7 @@
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001</v>
+        <v>5e-05</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5649999976158142</v>
+        <v>0.6274999976158142</v>
       </c>
       <c r="C2" t="n">
-        <v>41731.171875</v>
+        <v>41819.162109375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6160227277062156</v>
+        <v>0.6035227233713324</v>
       </c>
       <c r="E2" t="n">
-        <v>41729.3203125</v>
+        <v>41816.40198863636</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6274999976158142</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="C3" t="n">
-        <v>40979.841796875</v>
+        <v>41089.5234375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6559090993621133</v>
+        <v>0.6642045487057079</v>
       </c>
       <c r="E3" t="n">
-        <v>40978.53977272727</v>
+        <v>41086.99467329546</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +606,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6349999904632568</v>
+        <v>0.5949999988079071</v>
       </c>
       <c r="C4" t="n">
-        <v>40225.30078125</v>
+        <v>40375.11328125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6831818222999573</v>
+        <v>0.6707954569296404</v>
       </c>
       <c r="E4" t="n">
-        <v>40223.91725852273</v>
+        <v>40373.81072443182</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +623,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5949999988079071</v>
+        <v>0.5999999940395355</v>
       </c>
       <c r="C5" t="n">
-        <v>39481.13671875</v>
+        <v>39664.58984375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7052272720770403</v>
+        <v>0.68340910022909</v>
       </c>
       <c r="E5" t="n">
-        <v>39479.95880681818</v>
+        <v>39663.18892045454</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +640,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6550000011920929</v>
+        <v>0.5900000035762787</v>
       </c>
       <c r="C6" t="n">
-        <v>38747.09375</v>
+        <v>38960.123046875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7122727199034258</v>
+        <v>0.6556818105957725</v>
       </c>
       <c r="E6" t="n">
-        <v>38746.06356534091</v>
+        <v>38958.25497159091</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +657,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5999999940395355</v>
+        <v>0.6599999964237213</v>
       </c>
       <c r="C7" t="n">
-        <v>38026.69921875</v>
+        <v>38261.939453125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7002272660082037</v>
+        <v>0.6909090930765326</v>
       </c>
       <c r="E7" t="n">
-        <v>38025.00284090909</v>
+        <v>38261.45916193182</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +674,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5925000011920929</v>
+        <v>0.6124999821186066</v>
       </c>
       <c r="C8" t="n">
-        <v>37312.724609375</v>
+        <v>37574.80078125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6697727279229597</v>
+        <v>0.6545454534617338</v>
       </c>
       <c r="E8" t="n">
-        <v>37311.60901988636</v>
+        <v>37573.01349431818</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +691,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6324999928474426</v>
+        <v>0.6225000023841858</v>
       </c>
       <c r="C9" t="n">
-        <v>36614.2109375</v>
+        <v>36896.78515625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7153409123420715</v>
+        <v>0.7076136307282881</v>
       </c>
       <c r="E9" t="n">
-        <v>36613.40092329546</v>
+        <v>36895.57102272727</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +708,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6024999916553497</v>
+        <v>0.6150000095367432</v>
       </c>
       <c r="C10" t="n">
-        <v>35925.10546875</v>
+        <v>36226.4375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7320454662496393</v>
+        <v>0.6990909088741649</v>
       </c>
       <c r="E10" t="n">
-        <v>35924.29758522727</v>
+        <v>36225.12464488636</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6075000166893005</v>
+        <v>0.6499999761581421</v>
       </c>
       <c r="C11" t="n">
-        <v>35247.767578125</v>
+        <v>35567.8671875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.745227271860296</v>
+        <v>0.7145454450087114</v>
       </c>
       <c r="E11" t="n">
-        <v>35246.94176136364</v>
+        <v>35566.79865056818</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6450000107288361</v>
+        <v>0.6925000250339508</v>
       </c>
       <c r="C12" t="n">
-        <v>34582.361328125</v>
+        <v>34918.390625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7375000065023248</v>
+        <v>0.6979545517401262</v>
       </c>
       <c r="E12" t="n">
-        <v>34581.64950284091</v>
+        <v>34917.54723011364</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +759,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5999999940395355</v>
+        <v>0.502499982714653</v>
       </c>
       <c r="C13" t="n">
-        <v>33927.501953125</v>
+        <v>34278.818359375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7497727220708673</v>
+        <v>0.6237500039013949</v>
       </c>
       <c r="E13" t="n">
-        <v>33926.72833806818</v>
+        <v>34276.94460227273</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +776,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6624999940395355</v>
+        <v>0.6649999916553497</v>
       </c>
       <c r="C14" t="n">
-        <v>33284.48046875</v>
+        <v>33647.990234375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7359090935100209</v>
+        <v>0.7345454584468495</v>
       </c>
       <c r="E14" t="n">
-        <v>33283.95525568182</v>
+        <v>33646.67436079546</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +793,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.625</v>
+        <v>0.6175000071525574</v>
       </c>
       <c r="C15" t="n">
-        <v>32652.2158203125</v>
+        <v>33027.7734375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.709204532883384</v>
+        <v>0.7377272735942494</v>
       </c>
       <c r="E15" t="n">
-        <v>32651.30184659091</v>
+        <v>33026.75923295454</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +810,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6375000178813934</v>
+        <v>0.6175000071525574</v>
       </c>
       <c r="C16" t="n">
-        <v>32030.654296875</v>
+        <v>32417.267578125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7622727318243547</v>
+        <v>0.749204548922452</v>
       </c>
       <c r="E16" t="n">
-        <v>32029.65340909091</v>
+        <v>32416.07901278409</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +827,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6300000250339508</v>
+        <v>0.6550000011920929</v>
       </c>
       <c r="C17" t="n">
-        <v>31420.2470703125</v>
+        <v>31816.685546875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7363636276938699</v>
+        <v>0.7443181872367859</v>
       </c>
       <c r="E17" t="n">
-        <v>31419.36985085227</v>
+        <v>31815.65376420454</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +844,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6300000250339508</v>
+        <v>0.612500011920929</v>
       </c>
       <c r="C18" t="n">
-        <v>30819.376953125</v>
+        <v>31225.76953125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7788636305115439</v>
+        <v>0.7629545439373363</v>
       </c>
       <c r="E18" t="n">
-        <v>30818.49502840909</v>
+        <v>31224.56534090909</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +861,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5925000011920929</v>
+        <v>0.6400000154972076</v>
       </c>
       <c r="C19" t="n">
-        <v>30230.0859375</v>
+        <v>30644.8984375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7703409086574208</v>
+        <v>0.7436363697052002</v>
       </c>
       <c r="E19" t="n">
-        <v>30229.10014204546</v>
+        <v>30643.81640625</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +878,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5949999988079071</v>
+        <v>0.6200000047683716</v>
       </c>
       <c r="C20" t="n">
-        <v>29650.271484375</v>
+        <v>30073.1904296875</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7914772683923895</v>
+        <v>0.7695454521612688</v>
       </c>
       <c r="E20" t="n">
-        <v>29649.3828125</v>
+        <v>30072.02272727273</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +895,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6450000107288361</v>
+        <v>0.6299999952316284</v>
       </c>
       <c r="C21" t="n">
-        <v>29080.8203125</v>
+        <v>29511.26171875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7955681790005077</v>
+        <v>0.7667045484889637</v>
       </c>
       <c r="E21" t="n">
-        <v>29080.04243607954</v>
+        <v>29509.92791193182</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +912,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6449999809265137</v>
+        <v>0.5799999833106995</v>
       </c>
       <c r="C22" t="n">
-        <v>28521.8173828125</v>
+        <v>28958.578125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.787272718819705</v>
+        <v>0.7719318270683289</v>
       </c>
       <c r="E22" t="n">
-        <v>28520.87837357954</v>
+        <v>28957.29261363636</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +929,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6350000202655792</v>
+        <v>0.6699999868869781</v>
       </c>
       <c r="C23" t="n">
-        <v>27972.4892578125</v>
+        <v>28415.0322265625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7819318175315857</v>
+        <v>0.759659084406766</v>
       </c>
       <c r="E23" t="n">
-        <v>27971.58078835227</v>
+        <v>28414.10866477273</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +946,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.625</v>
+        <v>0.5999999940395355</v>
       </c>
       <c r="C24" t="n">
-        <v>27433.427734375</v>
+        <v>27880.8330078125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7602272738109935</v>
+        <v>0.7787499915469777</v>
       </c>
       <c r="E24" t="n">
-        <v>27432.57741477273</v>
+        <v>27879.72585227273</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +963,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6475000083446503</v>
+        <v>0.5974999964237213</v>
       </c>
       <c r="C25" t="n">
-        <v>26903.3203125</v>
+        <v>27355.71875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7965909134257924</v>
+        <v>0.7777272625402971</v>
       </c>
       <c r="E25" t="n">
-        <v>26902.47159090909</v>
+        <v>27354.68483664773</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +980,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.675000011920929</v>
+        <v>0.5825000107288361</v>
       </c>
       <c r="C26" t="n">
-        <v>26382.720703125</v>
+        <v>26839.619140625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7978409149430015</v>
+        <v>0.7859090891751376</v>
       </c>
       <c r="E26" t="n">
-        <v>26382.14861505682</v>
+        <v>26838.392578125</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +997,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6500000059604645</v>
+        <v>0.5625</v>
       </c>
       <c r="C27" t="n">
-        <v>25872.0322265625</v>
+        <v>26332.359375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7973863590847362</v>
+        <v>0.7906818118962374</v>
       </c>
       <c r="E27" t="n">
-        <v>25871.23792613636</v>
+        <v>26331.18093039773</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1014,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6574999988079071</v>
+        <v>0.5499999821186066</v>
       </c>
       <c r="C28" t="n">
-        <v>25370.4072265625</v>
+        <v>25833.93359375</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8043181787837635</v>
+        <v>0.7786363471638073</v>
       </c>
       <c r="E28" t="n">
-        <v>25369.66495028409</v>
+        <v>25832.71697443182</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1031,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.675000011920929</v>
+        <v>0.6550000011920929</v>
       </c>
       <c r="C29" t="n">
-        <v>24877.7548828125</v>
+        <v>25343.8505859375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8042045452378013</v>
+        <v>0.7987500049851157</v>
       </c>
       <c r="E29" t="n">
-        <v>24877.10387073864</v>
+        <v>25342.83309659091</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1048,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6574999988079071</v>
+        <v>0.6099999845027924</v>
       </c>
       <c r="C30" t="n">
-        <v>24394.412109375</v>
+        <v>24862.7333984375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7764772772789001</v>
+        <v>0.798522721637379</v>
       </c>
       <c r="E30" t="n">
-        <v>24393.59232954546</v>
+        <v>24861.52325994318</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1065,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6300000250339508</v>
+        <v>0.6474999785423279</v>
       </c>
       <c r="C31" t="n">
-        <v>23920.2109375</v>
+        <v>24389.7119140625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7752272703430869</v>
+        <v>0.7989772666584362</v>
       </c>
       <c r="E31" t="n">
-        <v>23919.10031960227</v>
+        <v>24388.60724431818</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1082,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6674999892711639</v>
+        <v>0.6599999964237213</v>
       </c>
       <c r="C32" t="n">
-        <v>23453.3154296875</v>
+        <v>23925.044921875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8157954541119662</v>
+        <v>0.7925000028176741</v>
       </c>
       <c r="E32" t="n">
-        <v>23452.58735795454</v>
+        <v>23924.03852982954</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1099,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6800000071525574</v>
+        <v>0.5974999964237213</v>
       </c>
       <c r="C33" t="n">
-        <v>22995.5576171875</v>
+        <v>23468.380859375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8296590935100209</v>
+        <v>0.7968181750991128</v>
       </c>
       <c r="E33" t="n">
-        <v>22994.88920454546</v>
+        <v>23467.36825284091</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1116,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6200000047683716</v>
+        <v>0.6024999916553497</v>
       </c>
       <c r="C34" t="n">
-        <v>22546.7451171875</v>
+        <v>23020.3330078125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7857954447919672</v>
+        <v>0.7851136326789856</v>
       </c>
       <c r="E34" t="n">
-        <v>22545.95916193182</v>
+        <v>23019.02468039773</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1133,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6774999797344208</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="C35" t="n">
-        <v>22105.173828125</v>
+        <v>22579.2880859375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8070454597473145</v>
       </c>
       <c r="E35" t="n">
-        <v>22104.56374289773</v>
+        <v>22578.078125</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1150,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6600000262260437</v>
+        <v>0.6525000035762787</v>
       </c>
       <c r="C36" t="n">
-        <v>21672.2900390625</v>
+        <v>22146.48046875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8010227246717974</v>
+        <v>0.7884090922095559</v>
       </c>
       <c r="E36" t="n">
-        <v>21671.77361505682</v>
+        <v>22145.49964488636</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1167,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6775000095367432</v>
+        <v>0.6225000023841858</v>
       </c>
       <c r="C37" t="n">
-        <v>21247.513671875</v>
+        <v>21721.16015625</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7939772714268077</v>
+        <v>0.8021590980616483</v>
       </c>
       <c r="E37" t="n">
-        <v>21246.83806818182</v>
+        <v>21720.119140625</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1184,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6200000047683716</v>
+        <v>0.6475000083446503</v>
       </c>
       <c r="C38" t="n">
-        <v>20829.845703125</v>
+        <v>21303.3994140625</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8115909045392816</v>
+        <v>0.8028409047560259</v>
       </c>
       <c r="E38" t="n">
-        <v>20829.23277698864</v>
+        <v>21302.45933948864</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1201,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6225000023841858</v>
+        <v>0.6800000071525574</v>
       </c>
       <c r="C39" t="n">
-        <v>20420.388671875</v>
+        <v>20893.10546875</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8254545547745444</v>
+        <v>0.8110227259722623</v>
       </c>
       <c r="E39" t="n">
-        <v>20419.62251420454</v>
+        <v>20892.17507102273</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1218,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6200000047683716</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="C40" t="n">
-        <v>20018.275390625</v>
+        <v>20490.537109375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7818181839856234</v>
+        <v>0.7828409129923041</v>
       </c>
       <c r="E40" t="n">
-        <v>20017.55362215909</v>
+        <v>20489.36772017046</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1235,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6525000035762787</v>
+        <v>0.5550000071525574</v>
       </c>
       <c r="C41" t="n">
-        <v>19623.81640625</v>
+        <v>20094.4501953125</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7635227225043557</v>
+        <v>0.7996590841900219</v>
       </c>
       <c r="E41" t="n">
-        <v>19623.24254261364</v>
+        <v>20093.53142755682</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1252,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6875</v>
+        <v>0.6500000059604645</v>
       </c>
       <c r="C42" t="n">
-        <v>19235.7255859375</v>
+        <v>19705.90234375</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8259090889583934</v>
+        <v>0.7935227209871466</v>
       </c>
       <c r="E42" t="n">
-        <v>19235.20134943182</v>
+        <v>19705.03515625</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1269,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6500000059604645</v>
+        <v>0.6225000023841858</v>
       </c>
       <c r="C43" t="n">
-        <v>18856.025390625</v>
+        <v>19324.1533203125</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7903409166769548</v>
+        <v>0.8076136274771257</v>
       </c>
       <c r="E43" t="n">
-        <v>18855.22389914773</v>
+        <v>19323.2890625</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1286,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6550000011920929</v>
+        <v>0.6524999737739563</v>
       </c>
       <c r="C44" t="n">
-        <v>18482.443359375</v>
+        <v>18948.9296875</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8206818049604242</v>
+        <v>0.8182954571463845</v>
       </c>
       <c r="E44" t="n">
-        <v>18481.73757102273</v>
+        <v>18948.39861505682</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1303,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.637499988079071</v>
+        <v>0.6274999976158142</v>
       </c>
       <c r="C45" t="n">
-        <v>18115.8134765625</v>
+        <v>18580.99609375</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8277272744612261</v>
+        <v>0.8293181766163219</v>
       </c>
       <c r="E45" t="n">
-        <v>18115.32475142046</v>
+        <v>18580.14382102273</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1320,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6500000059604645</v>
+        <v>0.6274999976158142</v>
       </c>
       <c r="C46" t="n">
-        <v>17756.29296875</v>
+        <v>18219.640625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8232954415408048</v>
+        <v>0.8090909123420715</v>
       </c>
       <c r="E46" t="n">
-        <v>17755.76207386364</v>
+        <v>18218.77059659091</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1337,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6500000059604645</v>
+        <v>0.6349999904632568</v>
       </c>
       <c r="C47" t="n">
-        <v>17403.23046875</v>
+        <v>17864.3984375</v>
       </c>
       <c r="D47" t="n">
-        <v>0.830909089608626</v>
+        <v>0.838181815364144</v>
       </c>
       <c r="E47" t="n">
-        <v>17402.708984375</v>
+        <v>17863.57102272727</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1354,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6550000011920929</v>
+        <v>0.6399999856948853</v>
       </c>
       <c r="C48" t="n">
-        <v>17057.0029296875</v>
+        <v>17515.9580078125</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8164772608063438</v>
+        <v>0.8184090906923468</v>
       </c>
       <c r="E48" t="n">
-        <v>17056.42329545454</v>
+        <v>17515.10085227273</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1371,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6724999845027924</v>
+        <v>0.6574999988079071</v>
       </c>
       <c r="C49" t="n">
-        <v>16717.0478515625</v>
+        <v>17173.720703125</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7915909019383517</v>
+        <v>0.8147727196866815</v>
       </c>
       <c r="E49" t="n">
-        <v>16716.52592329546</v>
+        <v>17172.75532670454</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1388,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6875</v>
+        <v>0.6399999856948853</v>
       </c>
       <c r="C50" t="n">
-        <v>16383.279296875</v>
+        <v>16837.5498046875</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8128409114750949</v>
+        <v>0.8098863525824114</v>
       </c>
       <c r="E50" t="n">
-        <v>16382.654296875</v>
+        <v>16836.65163352273</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,16 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6425000131130219</v>
+        <v>0.637499988079071</v>
       </c>
       <c r="C51" t="n">
-        <v>16055.60400390625</v>
+        <v>16507.2900390625</v>
       </c>
       <c r="D51" t="n">
-        <v>0.815681820566004</v>
+        <v>0.8310227285731923</v>
       </c>
       <c r="E51" t="n">
-        <v>16055.14346590909</v>
+        <v>16506.43643465909</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1422,16 +1422,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6500000059604645</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="C52" t="n">
-        <v>15734.998046875</v>
+        <v>16183.0703125</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7573863593014803</v>
+        <v>0.8273863629861311</v>
       </c>
       <c r="E52" t="n">
-        <v>15734.39408735795</v>
+        <v>16182.40163352273</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1439,16 +1439,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6875</v>
+        <v>0.6800000071525574</v>
       </c>
       <c r="C53" t="n">
-        <v>15418.943359375</v>
+        <v>15864.751953125</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7863636450334028</v>
+        <v>0.8321590911258351</v>
       </c>
       <c r="E53" t="n">
-        <v>15418.48987926136</v>
+        <v>15864.10191761364</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1456,16 +1456,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6599999964237213</v>
+        <v>0.5949999988079071</v>
       </c>
       <c r="C54" t="n">
-        <v>15109.7080078125</v>
+        <v>15552.7080078125</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7878409028053284</v>
+        <v>0.7921590859239752</v>
       </c>
       <c r="E54" t="n">
-        <v>15109.17391690341</v>
+        <v>15551.82262073864</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1473,16 +1473,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6550000011920929</v>
+        <v>0.5974999964237213</v>
       </c>
       <c r="C55" t="n">
-        <v>14806.2392578125</v>
+        <v>15246.02294921875</v>
       </c>
       <c r="D55" t="n">
-        <v>0.780454548922452</v>
+        <v>0.8218181783502753</v>
       </c>
       <c r="E55" t="n">
-        <v>14805.54607599432</v>
+        <v>15245.04190340909</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1490,16 +1490,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6724999845027924</v>
+        <v>0.6274999976158142</v>
       </c>
       <c r="C56" t="n">
-        <v>14507.81689453125</v>
+        <v>14944.7412109375</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8300000049851157</v>
+        <v>0.8184090961109508</v>
       </c>
       <c r="E56" t="n">
-        <v>14507.29323508523</v>
+        <v>14943.85804332386</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1507,16 +1507,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6725000143051147</v>
+        <v>0.6100000143051147</v>
       </c>
       <c r="C57" t="n">
-        <v>14215.48388671875</v>
+        <v>14649.39501953125</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8304545445875688</v>
+        <v>0.7882954532449896</v>
       </c>
       <c r="E57" t="n">
-        <v>14214.88654119318</v>
+        <v>14648.58309659091</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1524,16 +1524,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6899999976158142</v>
+        <v>0.6349999904632568</v>
       </c>
       <c r="C58" t="n">
-        <v>13928.416015625</v>
+        <v>14358.740234375</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8267045454545454</v>
+        <v>0.8232954523780129</v>
       </c>
       <c r="E58" t="n">
-        <v>13927.94096235795</v>
+        <v>14358.0107421875</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1541,16 +1541,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6724999845027924</v>
+        <v>0.6425000131130219</v>
       </c>
       <c r="C59" t="n">
-        <v>13647.0869140625</v>
+        <v>14074.412109375</v>
       </c>
       <c r="D59" t="n">
-        <v>0.804431823166934</v>
+        <v>0.7884090813723478</v>
       </c>
       <c r="E59" t="n">
-        <v>13646.54998224432</v>
+        <v>14073.46937144886</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1558,16 +1558,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6524999737739563</v>
+        <v>0.637499988079071</v>
       </c>
       <c r="C60" t="n">
-        <v>13370.6708984375</v>
+        <v>13794.19970703125</v>
       </c>
       <c r="D60" t="n">
-        <v>0.796022734858773</v>
+        <v>0.8331818092953075</v>
       </c>
       <c r="E60" t="n">
-        <v>13370.07146661932</v>
+        <v>13793.48570667614</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1575,16 +1575,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7025000154972076</v>
+        <v>0.612500011920929</v>
       </c>
       <c r="C61" t="n">
-        <v>13099.53173828125</v>
+        <v>13519.92626953125</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7923863638531078</v>
+        <v>0.7840908982537009</v>
       </c>
       <c r="E61" t="n">
-        <v>13099.16512784091</v>
+        <v>13519.13955965909</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1592,16 +1592,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7299999892711639</v>
+        <v>0.6599999964237213</v>
       </c>
       <c r="C62" t="n">
-        <v>12833.3642578125</v>
+        <v>13250.76806640625</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8338636376641013</v>
+        <v>0.7610227248885415</v>
       </c>
       <c r="E62" t="n">
-        <v>12832.95987215909</v>
+        <v>13250.04971590909</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1609,16 +1609,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6400000154972076</v>
+        <v>0.6049999892711639</v>
       </c>
       <c r="C63" t="n">
-        <v>12572.60107421875</v>
+        <v>12986.01513671875</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8136363571340387</v>
+        <v>0.8174999952316284</v>
       </c>
       <c r="E63" t="n">
-        <v>12572.0419921875</v>
+        <v>12985.19060724432</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1626,16 +1626,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6624999940395355</v>
+        <v>0.6749999821186066</v>
       </c>
       <c r="C64" t="n">
-        <v>12316.572265625</v>
+        <v>12726.0927734375</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7778409123420715</v>
+        <v>0.8329545530405912</v>
       </c>
       <c r="E64" t="n">
-        <v>12315.96617542614</v>
+        <v>12725.44406960227</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1643,16 +1643,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6124999821186066</v>
+        <v>0.6299999952316284</v>
       </c>
       <c r="C65" t="n">
-        <v>12065.498046875</v>
+        <v>12471.3671875</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7792045582424511</v>
+        <v>0.8244318257678639</v>
       </c>
       <c r="E65" t="n">
-        <v>12064.88059303977</v>
+        <v>12470.68155184659</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1660,16 +1660,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6599999964237213</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="C66" t="n">
-        <v>11818.73681640625</v>
+        <v>12221.12841796875</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7632954554124312</v>
+        <v>0.8368181803009727</v>
       </c>
       <c r="E66" t="n">
-        <v>11818.21759588068</v>
+        <v>12220.49680397727</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1677,16 +1677,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6775000095367432</v>
+        <v>0.6475000083446503</v>
       </c>
       <c r="C67" t="n">
-        <v>11576.9248046875</v>
+        <v>11976.0244140625</v>
       </c>
       <c r="D67" t="n">
-        <v>0.794431821866469</v>
+        <v>0.8022727207704023</v>
       </c>
       <c r="E67" t="n">
-        <v>11576.43403764205</v>
+        <v>11975.26828835227</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1694,16 +1694,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6649999916553497</v>
+        <v>0.6875</v>
       </c>
       <c r="C68" t="n">
-        <v>11339.50830078125</v>
+        <v>11734.8388671875</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8056818138469349</v>
+        <v>0.8128409114750949</v>
       </c>
       <c r="E68" t="n">
-        <v>11338.97682883523</v>
+        <v>11734.18332741477</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1711,16 +1711,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6800000071525574</v>
+        <v>0.5974999964237213</v>
       </c>
       <c r="C69" t="n">
-        <v>11106.580078125</v>
+        <v>11498.53125</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8107954534617338</v>
+        <v>0.8047727238048207</v>
       </c>
       <c r="E69" t="n">
-        <v>11106.10582386364</v>
+        <v>11497.66912286932</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1728,16 +1728,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6700000166893005</v>
+        <v>0.6624999940395355</v>
       </c>
       <c r="C70" t="n">
-        <v>10878.24853515625</v>
+        <v>11266.37451171875</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8122727329080756</v>
+        <v>0.8115909153764899</v>
       </c>
       <c r="E70" t="n">
-        <v>10877.70845170455</v>
+        <v>11265.74405184659</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1745,16 +1745,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6425000131130219</v>
+        <v>0.6449999809265137</v>
       </c>
       <c r="C71" t="n">
-        <v>10654.58935546875</v>
+        <v>11038.36865234375</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7548863616856661</v>
+        <v>0.8323863690549677</v>
       </c>
       <c r="E71" t="n">
-        <v>10654.078125</v>
+        <v>11037.78364701705</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1762,16 +1762,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6225000023841858</v>
+        <v>0.632500022649765</v>
       </c>
       <c r="C72" t="n">
-        <v>10435.07275390625</v>
+        <v>10815.1689453125</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7386363636363636</v>
+        <v>0.8055681803009727</v>
       </c>
       <c r="E72" t="n">
-        <v>10434.39497514205</v>
+        <v>10814.52556818182</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1779,16 +1779,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6725000143051147</v>
+        <v>0.6450000107288361</v>
       </c>
       <c r="C73" t="n">
-        <v>10218.9384765625</v>
+        <v>10595.52490234375</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8039772673086687</v>
+        <v>0.836590896953236</v>
       </c>
       <c r="E73" t="n">
-        <v>10218.33922230114</v>
+        <v>10594.91867897727</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1796,16 +1796,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6550000011920929</v>
+        <v>0.6649999916553497</v>
       </c>
       <c r="C74" t="n">
-        <v>10007.162109375</v>
+        <v>10380.41552734375</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8156818151473999</v>
+        <v>0.8134090900421143</v>
       </c>
       <c r="E74" t="n">
-        <v>10006.70090553977</v>
+        <v>10379.77769886364</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1813,16 +1813,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7199999988079071</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="C75" t="n">
-        <v>9799.658203125</v>
+        <v>10169.20263671875</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8079545443708246</v>
+        <v>0.8303409056230024</v>
       </c>
       <c r="E75" t="n">
-        <v>9799.262251420454</v>
+        <v>10168.52849786932</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1830,16 +1830,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6074999868869781</v>
+        <v>0.6475000083446503</v>
       </c>
       <c r="C76" t="n">
-        <v>9596.73828125</v>
+        <v>9962.06103515625</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7015909064899791</v>
+        <v>0.8181818127632141</v>
       </c>
       <c r="E76" t="n">
-        <v>9596.137428977272</v>
+        <v>9961.324928977272</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1847,16 +1847,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6699999868869781</v>
+        <v>0.632500022649765</v>
       </c>
       <c r="C77" t="n">
-        <v>9396.701171875</v>
+        <v>9758.7666015625</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8010227192531932</v>
+        <v>0.7920454577966169</v>
       </c>
       <c r="E77" t="n">
-        <v>9396.31338778409</v>
+        <v>9758.141068892046</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1864,16 +1864,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6649999916553497</v>
+        <v>0.6850000023841858</v>
       </c>
       <c r="C78" t="n">
-        <v>9200.8876953125</v>
+        <v>9559.2685546875</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8144318190487948</v>
+        <v>0.7788636413487521</v>
       </c>
       <c r="E78" t="n">
-        <v>9200.472034801136</v>
+        <v>9558.669655539772</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1881,16 +1881,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6700000166893005</v>
+        <v>0.6749999821186066</v>
       </c>
       <c r="C79" t="n">
-        <v>9009.005859375</v>
+        <v>9363.0986328125</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7837499921972101</v>
+        <v>0.8315909071402117</v>
       </c>
       <c r="E79" t="n">
-        <v>9008.574485085228</v>
+        <v>9362.52450284091</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1898,16 +1898,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6699999868869781</v>
+        <v>0.6875</v>
       </c>
       <c r="C80" t="n">
-        <v>8820.9228515625</v>
+        <v>9171.005859375</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7538636326789856</v>
+        <v>0.8164772716435519</v>
       </c>
       <c r="E80" t="n">
-        <v>8820.494140625</v>
+        <v>9170.548650568182</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1915,16 +1915,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6425000131130219</v>
+        <v>0.6550000011920929</v>
       </c>
       <c r="C81" t="n">
-        <v>8637.1103515625</v>
+        <v>8982.5087890625</v>
       </c>
       <c r="D81" t="n">
-        <v>0.664318176833066</v>
+        <v>0.820568171414462</v>
       </c>
       <c r="E81" t="n">
-        <v>8636.663796164772</v>
+        <v>8981.994495738636</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C2" t="n">
         <v>0.01075268817204301</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08602150537634409</v>
+        <v>0.05376344086021505</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1984,10 +1984,10 @@
         <v>0.006802721088435374</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08602150537634409</v>
+        <v>0.05376344086021505</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1995,10 +1995,10 @@
         <v>0.006802721088435374</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.09677419354838709</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2006,10 +2006,10 @@
         <v>0.01360544217687075</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.09677419354838709</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2017,384 +2017,384 @@
         <v>0.01360544217687075</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1505376344086022</v>
+        <v>0.1290322580645161</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1505376344086022</v>
+        <v>0.1290322580645161</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2150537634408602</v>
+        <v>0.1720430107526882</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.05442176870748299</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2150537634408602</v>
+        <v>0.1720430107526882</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.05442176870748299</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2473118279569892</v>
+        <v>0.2258064516129032</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.06122448979591837</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2473118279569892</v>
+        <v>0.2258064516129032</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.06122448979591837</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2688172043010753</v>
+        <v>0.2365591397849462</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.07482993197278912</v>
+        <v>0.05442176870748299</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2688172043010753</v>
+        <v>0.2365591397849462</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.07482993197278912</v>
+        <v>0.05442176870748299</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2795698924731183</v>
+        <v>0.2473118279569892</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2795698924731183</v>
+        <v>0.2473118279569892</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3010752688172043</v>
+        <v>0.2580645161290323</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1020408163265306</v>
+        <v>0.06802721088435375</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3010752688172043</v>
+        <v>0.2580645161290323</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1020408163265306</v>
+        <v>0.06802721088435375</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3118279569892473</v>
+        <v>0.2688172043010753</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1224489795918367</v>
+        <v>0.08843537414965986</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3118279569892473</v>
+        <v>0.2688172043010753</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1224489795918367</v>
+        <v>0.08843537414965986</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3440860215053764</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1292517006802721</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3440860215053764</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1292517006802721</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.3440860215053764</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1360544217687075</v>
+        <v>0.1292517006802721</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.3440860215053764</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1360544217687075</v>
+        <v>0.1292517006802721</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3763440860215054</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1564625850340136</v>
+        <v>0.1360544217687075</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3763440860215054</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1564625850340136</v>
+        <v>0.1360544217687075</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3978494623655914</v>
+        <v>0.4193548387096774</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.1700680272108843</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3978494623655914</v>
+        <v>0.4193548387096774</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.1700680272108843</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4086021505376344</v>
+        <v>0.4301075268817204</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.1972789115646258</v>
+        <v>0.1700680272108843</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4086021505376344</v>
+        <v>0.4301075268817204</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.1972789115646258</v>
+        <v>0.1700680272108843</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.4408602150537634</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2108843537414966</v>
+        <v>0.1768707482993197</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.4408602150537634</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2108843537414966</v>
+        <v>0.1768707482993197</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4408602150537634</v>
+        <v>0.4516129032258064</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.217687074829932</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4408602150537634</v>
+        <v>0.4516129032258064</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.217687074829932</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4731182795698925</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2244897959183673</v>
+        <v>0.1972789115646258</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4731182795698925</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.2244897959183673</v>
+        <v>0.1972789115646258</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.5053763440860215</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.5053763440860215</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.2448979591836735</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2448979591836735</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6021505376344086</v>
+        <v>0.5483870967741935</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2402,10 +2402,10 @@
         <v>0.2517006802721088</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6021505376344086</v>
+        <v>0.5483870967741935</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2413,416 +2413,724 @@
         <v>0.2517006802721088</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5698924731182796</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.2993197278911565</v>
+        <v>0.2585034013605442</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5698924731182796</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.2993197278911565</v>
+        <v>0.2585034013605442</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.5806451612903226</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3061224489795918</v>
+        <v>0.2789115646258503</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.5806451612903226</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3061224489795918</v>
+        <v>0.2789115646258503</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.5913978494623656</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3197278911564626</v>
+        <v>0.2925170068027211</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.5913978494623656</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3197278911564626</v>
+        <v>0.2925170068027211</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6129032258064516</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3197278911564626</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6129032258064516</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3197278911564626</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7849462365591398</v>
+        <v>0.6236559139784946</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3469387755102041</v>
+        <v>0.3537414965986395</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7849462365591398</v>
+        <v>0.6236559139784946</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.3469387755102041</v>
+        <v>0.3537414965986395</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7956989247311828</v>
+        <v>0.6344086021505376</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.3945578231292517</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7956989247311828</v>
+        <v>0.6344086021505376</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.3945578231292517</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.6451612903225806</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.4081632653061225</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.6451612903225806</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4081632653061225</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8279569892473119</v>
+        <v>0.6559139784946236</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4149659863945578</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8279569892473119</v>
+        <v>0.6559139784946236</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.4149659863945578</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.6774193548387096</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.5034013605442177</v>
+        <v>0.4149659863945578</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.6774193548387096</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.5034013605442177</v>
+        <v>0.4149659863945578</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8924731182795699</v>
+        <v>0.7096774193548387</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.5374149659863946</v>
+        <v>0.4217687074829932</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8924731182795699</v>
+        <v>0.7096774193548387</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5374149659863946</v>
+        <v>0.4217687074829932</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9139784946236559</v>
+        <v>0.7204301075268817</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5578231292517006</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9139784946236559</v>
+        <v>0.7204301075268817</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5578231292517006</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.7311827956989247</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5850340136054422</v>
+        <v>0.4557823129251701</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.7311827956989247</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5850340136054422</v>
+        <v>0.4557823129251701</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C69" t="n">
-        <v>0.946236559139785</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.6598639455782312</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C70" t="n">
-        <v>0.946236559139785</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.6598639455782312</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C71" t="n">
-        <v>0.956989247311828</v>
+        <v>0.7634408602150538</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.7414965986394558</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C72" t="n">
-        <v>0.956989247311828</v>
+        <v>0.7634408602150538</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.7414965986394558</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C73" t="n">
-        <v>0.967741935483871</v>
+        <v>0.7849462365591398</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.5374149659863946</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C74" t="n">
-        <v>0.967741935483871</v>
+        <v>0.7849462365591398</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.5374149659863946</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C75" t="n">
-        <v>0.978494623655914</v>
+        <v>0.8172043010752689</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.7891156462585034</v>
+        <v>0.54421768707483</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C76" t="n">
-        <v>0.978494623655914</v>
+        <v>0.8172043010752689</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.7891156462585034</v>
+        <v>0.54421768707483</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C77" t="n">
-        <v>0.989247311827957</v>
+        <v>0.8279569892473119</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.8027210884353742</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C78" t="n">
-        <v>0.989247311827957</v>
+        <v>0.8279569892473119</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.8027210884353742</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7605881062102261</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0.8387096774193549</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
+        <v>0.5986394557823129</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.8387096774193549</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="n">
+        <v>0.5986394557823129</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.8494623655913979</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.8494623655913979</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.8602150537634409</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="n">
+        <v>0.6258503401360545</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.8602150537634409</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="n">
+        <v>0.6258503401360545</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.8709677419354839</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="n">
+        <v>0.7074829931972789</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.8709677419354839</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="n">
+        <v>0.7074829931972789</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.8817204301075269</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.8817204301075269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.8924731182795699</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="n">
+        <v>0.7278911564625851</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.8924731182795699</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="n">
+        <v>0.7278911564625851</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.9032258064516129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="n">
+        <v>0.7414965986394558</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.9032258064516129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="n">
+        <v>0.7414965986394558</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.9139784946236559</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="n">
+        <v>0.7482993197278912</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.9139784946236559</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="n">
+        <v>0.7482993197278912</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.9247311827956989</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="n">
+        <v>0.8163265306122449</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.9247311827956989</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="n">
+        <v>0.8163265306122449</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.9354838709677419</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="n">
+        <v>0.8299319727891157</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.9354838709677419</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="n">
+        <v>0.8299319727891157</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.956989247311828</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="n">
+        <v>0.8639455782312925</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.956989247311828</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="n">
+        <v>0.8639455782312925</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="n">
+        <v>0.8775510204081632</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="n">
+        <v>0.8775510204081632</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.978494623655914</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="n">
+        <v>0.9251700680272109</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.978494623655914</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="n">
+        <v>0.9251700680272109</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.989247311827957</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="n">
+        <v>0.9659863945578231</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.989247311827957</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="n">
+        <v>0.9659863945578231</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C107" t="n">
         <v>1</v>
       </c>
-      <c r="B80" t="n">
-        <v>0.7605881062102261</v>
-      </c>
-      <c r="C80" t="n">
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="n">
+        <v>1</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2837,7 +3145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2861,10 +3169,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01360544217687075</v>
+        <v>0.006802721088435374</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2872,29 +3180,29 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04081632653061224</v>
+        <v>0.03401360544217687</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="B4" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05442176870748299</v>
+        <v>0.03401360544217687</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="B5" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C5" t="n">
         <v>0.07482993197278912</v>
@@ -2902,65 +3210,65 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="B6" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1020408163265306</v>
+        <v>0.07482993197278912</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="B7" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1156462585034014</v>
+        <v>0.1224489795918367</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="B8" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1292517006802721</v>
+        <v>0.1224489795918367</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="B9" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1360544217687075</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="B10" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1564625850340136</v>
+        <v>0.1360544217687075</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="B11" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C11" t="n">
         <v>0.1700680272108843</v>
@@ -2968,376 +3276,376 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="B12" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1836734693877551</v>
+        <v>0.1700680272108843</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="B13" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1972789115646258</v>
+        <v>0.1836734693877551</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.01075268817204301</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="B14" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1972789115646258</v>
+        <v>0.1836734693877551</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.01075268817204301</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="B15" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2108843537414966</v>
+        <v>0.2517006802721088</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.02150537634408602</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="B16" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2108843537414966</v>
+        <v>0.2517006802721088</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.02150537634408602</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="B17" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.2585034013605442</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="B18" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.2585034013605442</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="B19" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2585034013605442</v>
+        <v>0.272108843537415</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.04301075268817205</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="B20" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2585034013605442</v>
+        <v>0.272108843537415</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.04301075268817205</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="B21" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3401360544217687</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.05376344086021505</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="B22" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3401360544217687</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.05376344086021505</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="B23" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3945578231292517</v>
+        <v>0.2925170068027211</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.05376344086021505</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="B24" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4081632653061225</v>
+        <v>0.2925170068027211</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.05376344086021505</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="B25" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4149659863945578</v>
+        <v>0.3741496598639456</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.1397849462365591</v>
       </c>
       <c r="B26" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4149659863945578</v>
+        <v>0.3741496598639456</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.1397849462365591</v>
       </c>
       <c r="B27" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4421768707482993</v>
+        <v>0.3877551020408163</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.08602150537634409</v>
+        <v>0.1505376344086022</v>
       </c>
       <c r="B28" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4421768707482993</v>
+        <v>0.3877551020408163</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.08602150537634409</v>
+        <v>0.1505376344086022</v>
       </c>
       <c r="B29" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4625850340136055</v>
+        <v>0.4013605442176871</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.1075268817204301</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="B30" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4625850340136055</v>
+        <v>0.4013605442176871</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.1075268817204301</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="B31" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4965986394557823</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="B32" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4965986394557823</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="B33" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.4557823129251701</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="B34" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.4557823129251701</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="B35" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5850340136054422</v>
+        <v>0.4625850340136055</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.1720430107526882</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="B36" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5850340136054422</v>
+        <v>0.4625850340136055</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.1720430107526882</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="B37" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5918367346938775</v>
+        <v>0.4761904761904762</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.1827956989247312</v>
+        <v>0.2365591397849462</v>
       </c>
       <c r="B38" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5918367346938775</v>
+        <v>0.4761904761904762</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.1827956989247312</v>
+        <v>0.2365591397849462</v>
       </c>
       <c r="B39" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6054421768707483</v>
+        <v>0.4897959183673469</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.2043010752688172</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="B40" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6054421768707483</v>
+        <v>0.4897959183673469</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2043010752688172</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="B41" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6530612244897959</v>
+        <v>0.54421768707483</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.2150537634408602</v>
+        <v>0.2688172043010753</v>
       </c>
       <c r="B42" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6530612244897959</v>
+        <v>0.54421768707483</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.2150537634408602</v>
+        <v>0.2688172043010753</v>
       </c>
       <c r="B43" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.2795698924731183</v>
       </c>
       <c r="B44" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.2795698924731183</v>
       </c>
       <c r="B45" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6802721088435374</v>
+        <v>0.5782312925170068</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3345,10 +3653,10 @@
         <v>0.2903225806451613</v>
       </c>
       <c r="B46" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6802721088435374</v>
+        <v>0.5782312925170068</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3356,32 +3664,32 @@
         <v>0.2903225806451613</v>
       </c>
       <c r="B47" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6938775510204082</v>
+        <v>0.5850340136054422</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3118279569892473</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="B48" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6938775510204082</v>
+        <v>0.5850340136054422</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3118279569892473</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="B49" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7006802721088435</v>
+        <v>0.5918367346938775</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3389,10 +3697,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B50" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7006802721088435</v>
+        <v>0.5918367346938775</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3400,460 +3708,636 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7482993197278912</v>
+        <v>0.6122448979591837</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3978494623655914</v>
+        <v>0.3440860215053764</v>
       </c>
       <c r="B52" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7482993197278912</v>
+        <v>0.6122448979591837</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.3978494623655914</v>
+        <v>0.3440860215053764</v>
       </c>
       <c r="B53" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7551020408163265</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.4086021505376344</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="B54" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7551020408163265</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.4086021505376344</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="B55" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.6326530612244898</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.4838709677419355</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="B56" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.6326530612244898</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4838709677419355</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="B57" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7755102040816326</v>
+        <v>0.6462585034013606</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.5268817204301075</v>
+        <v>0.3763440860215054</v>
       </c>
       <c r="B58" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7755102040816326</v>
+        <v>0.6462585034013606</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.5268817204301075</v>
+        <v>0.3763440860215054</v>
       </c>
       <c r="B59" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C59" t="n">
-        <v>0.782312925170068</v>
+        <v>0.6802721088435374</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.5591397849462365</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="B60" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C60" t="n">
-        <v>0.782312925170068</v>
+        <v>0.6802721088435374</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.5591397849462365</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="B61" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7891156462585034</v>
+        <v>0.7074829931972789</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.4086021505376344</v>
       </c>
       <c r="B62" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7891156462585034</v>
+        <v>0.7074829931972789</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.4086021505376344</v>
       </c>
       <c r="B63" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8027210884353742</v>
+        <v>0.7210884353741497</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="B64" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8027210884353742</v>
+        <v>0.7210884353741497</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="B65" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8299319727891157</v>
+        <v>0.7414965986394558</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.6021505376344086</v>
+        <v>0.4301075268817204</v>
       </c>
       <c r="B66" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8299319727891157</v>
+        <v>0.7414965986394558</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.6021505376344086</v>
+        <v>0.4301075268817204</v>
       </c>
       <c r="B67" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8435374149659864</v>
+        <v>0.7482993197278912</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="B68" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8435374149659864</v>
+        <v>0.7482993197278912</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="B69" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8639455782312925</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="B70" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8639455782312925</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="B71" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8707482993197279</v>
+        <v>0.7755102040816326</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.4946236559139785</v>
       </c>
       <c r="B72" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8707482993197279</v>
+        <v>0.7755102040816326</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.4946236559139785</v>
       </c>
       <c r="B73" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.8027210884353742</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="B74" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.8027210884353742</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="B75" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.8163265306122449</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="B76" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.8163265306122449</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="B77" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.8231292517006803</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.5591397849462365</v>
       </c>
       <c r="B78" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.8231292517006803</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.5591397849462365</v>
       </c>
       <c r="B79" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9251700680272109</v>
+        <v>0.8299319727891157</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.5698924731182796</v>
       </c>
       <c r="B80" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9251700680272109</v>
+        <v>0.8299319727891157</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.5698924731182796</v>
       </c>
       <c r="B81" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9387755102040817</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="B82" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9387755102040817</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="B83" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9455782312925171</v>
+        <v>0.8639455782312925</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.7849462365591398</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="B84" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9455782312925171</v>
+        <v>0.8639455782312925</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.7849462365591398</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="B85" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.8707482993197279</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="B86" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.8707482993197279</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="B87" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9863945578231292</v>
+        <v>0.9047619047619048</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="B88" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9863945578231292</v>
+        <v>0.9047619047619048</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="B89" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9931972789115646</v>
+        <v>0.9115646258503401</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.9139784946236559</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="B90" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9931972789115646</v>
+        <v>0.9115646258503401</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.9139784946236559</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="B91" t="n">
-        <v>0.760588106210226</v>
+        <v>0.7065320751956696</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0.9319727891156463</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
+        <v>0.7419354838709677</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.9319727891156463</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="n">
+        <v>0.7419354838709677</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.9387755102040817</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="n">
+        <v>0.7526881720430108</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.9387755102040817</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="n">
+        <v>0.7526881720430108</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.9455782312925171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="n">
+        <v>0.7634408602150538</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.9455782312925171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="n">
+        <v>0.7634408602150538</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.9523809523809523</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="n">
+        <v>0.7741935483870968</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.9523809523809523</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="n">
+        <v>0.7741935483870968</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.9591836734693877</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="n">
+        <v>0.8279569892473119</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.9591836734693877</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="n">
+        <v>0.8279569892473119</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.9795918367346939</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="n">
+        <v>0.8709677419354839</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.9795918367346939</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="n">
+        <v>0.8709677419354839</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.9863945578231292</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="n">
+        <v>0.9032258064516129</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.9863945578231292</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="n">
+        <v>0.9032258064516129</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.9931972789115646</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="n">
+        <v>0.946236559139785</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.9931972789115646</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="n">
+        <v>0.946236559139785</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C107" t="n">
         <v>1</v>
       </c>
-      <c r="B92" t="n">
-        <v>0.760588106210226</v>
-      </c>
-      <c r="C92" t="n">
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="n">
+        <v>1</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7065320751956696</v>
+      </c>
+      <c r="C108" t="n">
         <v>1</v>
       </c>
     </row>
